--- a/hardware/bom_gerber_pick/2.3b/BOM_s3_2.3b_btn_5_2024-04-23.xlsx
+++ b/hardware/bom_gerber_pick/2.3b/BOM_s3_2.3b_btn_5_2024-04-23.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowHeight="17820"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_s3单板_2.3b_btn_5_2024-04-23" state="visible" r:id="rId4"/>
+    <sheet name="BOM_s3单板_2.3b_btn_5_2024-04-23" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -394,7 +397,7 @@
     <t>C9900042517</t>
   </si>
   <si>
-    <t>RFANT5220110A0T</t>
+    <t>AN2051-245</t>
   </si>
   <si>
     <t>U208</t>
@@ -403,7 +406,7 @@
     <t>FILTER-SMD_L5.2-W2.0-L</t>
   </si>
   <si>
-    <t>C127611</t>
+    <t>C99727</t>
   </si>
   <si>
     <t>USB-TYPE-C-018</t>
@@ -436,25 +439,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -462,24 +808,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -801,22 +1434,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -850,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -867,7 +1502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -884,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -901,7 +1536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -918,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -935,7 +1570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -952,7 +1587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -969,7 +1604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -986,7 +1621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1003,7 +1638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1020,7 +1655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1037,7 +1672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1054,7 +1689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1071,7 +1706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1088,7 +1723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1105,7 +1740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1122,7 +1757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1139,7 +1774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1156,7 +1791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1173,7 +1808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1190,7 +1825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -1207,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1224,7 +1859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1241,7 +1876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -1258,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -1275,7 +1910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -1292,7 +1927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -1309,7 +1944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -1326,7 +1961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -1343,7 +1978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -1360,7 +1995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1377,8 +2012,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
@@ -1387,14 +2022,14 @@
       <c r="C34" t="s">
         <v>129</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -1411,7 +2046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -1428,7 +2063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -1436,6 +2071,7 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>